--- a/DB/database.xlsx
+++ b/DB/database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tatvasoft\6 month\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tatvasoft\6 month\Assignment\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="150">
   <si>
     <t>null</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>county.id</t>
   </si>
 </sst>
 </file>
@@ -763,9 +766,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -782,6 +782,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1067,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,16 +1085,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1567,16 +1570,16 @@
       <c r="K23" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -1785,16 +1788,16 @@
       <c r="H36" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -1868,17 +1871,22 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
@@ -1953,16 +1961,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -2320,36 +2328,36 @@
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="25">
+      <c r="D68" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="24">
         <v>0</v>
       </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="71" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
@@ -2444,16 +2452,16 @@
       <c r="H75" s="4"/>
     </row>
     <row r="78" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
@@ -2568,16 +2576,16 @@
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
@@ -2666,16 +2674,16 @@
       <c r="H89" s="4"/>
     </row>
     <row r="92" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
@@ -2794,16 +2802,16 @@
       <c r="H97" s="4"/>
     </row>
     <row r="100" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
@@ -3024,16 +3032,16 @@
       <c r="H110" s="4"/>
     </row>
     <row r="114" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
@@ -3062,28 +3070,28 @@
       </c>
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="14">
+      <c r="C116" s="13">
         <v>16</v>
       </c>
-      <c r="D116" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="14" t="s">
+      <c r="D116" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="14" t="s">
+      <c r="H116" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3211,16 +3219,16 @@
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
@@ -3264,7 +3272,7 @@
       <c r="E134" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G134" s="3" t="s">
@@ -3369,16 +3377,16 @@
       <c r="H139" s="6"/>
     </row>
     <row r="142" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
@@ -3551,16 +3559,16 @@
       <c r="H150" s="4"/>
     </row>
     <row r="153" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
@@ -3588,29 +3596,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="15" t="s">
+    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="15">
+      <c r="C155" s="14">
         <v>20</v>
       </c>
-      <c r="D155" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="15" t="s">
+      <c r="D155" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G155" s="15" t="s">
+      <c r="G155" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H155" s="15" t="s">
+      <c r="H155" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3772,16 +3780,16 @@
       <c r="H163" s="9"/>
     </row>
     <row r="164" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
@@ -3810,23 +3818,23 @@
       </c>
     </row>
     <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="B166" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="18">
+      <c r="C166" s="17">
         <v>20</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E166" s="18" t="s">
+      <c r="E166" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18" t="s">
+      <c r="F166" s="17"/>
+      <c r="G166" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H166" s="3" t="s">
@@ -3834,23 +3842,23 @@
       </c>
     </row>
     <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="B167" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C167" s="18">
+      <c r="C167" s="17">
         <v>20</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18" t="s">
+      <c r="F167" s="17"/>
+      <c r="G167" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H167" s="3" t="s">
@@ -3858,34 +3866,34 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19" t="s">
+      <c r="C168" s="18"/>
+      <c r="D168" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E168" s="19" t="s">
+      <c r="E168" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
     <row r="171" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
